--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -1347,10 +1347,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1414,15 +1419,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1555,10 +1555,15 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1622,15 +1627,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1695,10 +1695,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1774,7 +1778,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1864,7 +1868,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1940,12 +1944,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2015,13 +2020,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2096,7 +2100,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2163,7 +2167,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2223,21 +2227,9 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
@@ -2342,7 +2334,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2379,7 +2375,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2418,7 +2414,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2474,7 +2470,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2525,7 +2521,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2568,7 +2564,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2611,7 +2607,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2656,11 +2652,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2699,9 +2691,22 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2744,20 +2749,15 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2826,15 +2826,19 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -2885,12 +2889,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2928,12 +2932,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2967,12 +2971,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3024,21 +3028,9 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -3107,7 +3099,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3148,7 +3144,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3191,7 +3187,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3234,7 +3230,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3277,7 +3273,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3320,7 +3316,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3357,11 +3353,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3407,9 +3399,21 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3448,19 +3452,15 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3516,12 +3516,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3567,7 +3567,7 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3635,7 +3635,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3686,7 +3686,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3740,16 +3740,8 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -1200,7 +1200,7 @@
         <is>
           <t>Driver,
 Silver Van,
-Rx</t>
+Rx Equip</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <is>
           <t>Driver, 1/2
 Gray Van,
-Rx</t>
+Rx Equip</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -4262,7 +4262,7 @@
       <c r="W77" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Supv Rx Equip</t>
         </is>
       </c>
       <c r="X77" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -3563,7 +3563,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -3774,15 +3779,10 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -3099,11 +3099,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3142,11 +3138,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3185,11 +3177,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3228,11 +3216,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>9789 N SECOND ST</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3271,11 +3255,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3314,11 +3294,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
@@ -3404,16 +3380,8 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3455,11 +3423,7 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3514,16 +3478,8 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3570,16 +3526,8 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3638,14 +3586,10 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3689,14 +3633,10 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3746,7 +3686,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -3785,7 +3729,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>9789 N SECOND ST</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3816,7 +3764,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3847,7 +3799,11 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -3908,9 +3864,21 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3939,8 +3907,16 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3966,8 +3942,16 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4005,8 +3989,16 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4040,8 +4032,16 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4081,8 +4081,16 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -1627,10 +1627,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1695,7 +1699,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1778,7 +1782,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1868,12 +1872,13 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1944,13 +1949,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2020,7 +2024,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2100,7 +2104,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2160,21 +2164,9 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
@@ -2287,7 +2279,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
@@ -2336,7 +2332,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2375,7 +2371,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2414,7 +2410,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2470,7 +2466,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2521,7 +2517,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t>*IL Meet is 5:00 am at IL office</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2564,7 +2560,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL office</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2605,11 +2601,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2651,9 +2643,22 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2693,20 +2698,15 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2749,15 +2749,19 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2826,19 +2830,15 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -2889,12 +2889,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2930,21 +2930,9 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2969,21 +2957,9 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -3029,7 +3005,11 @@
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3064,7 +3044,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -3099,7 +3083,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PLAIN ONE STOP</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3138,7 +3126,11 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1125 WACHTER AVE</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3177,7 +3169,11 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/Ly9ZY5aLqyx3GhXSA</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3216,7 +3212,11 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>6:15 am meet for Sarah/Lori at Baraboo Festival Foods</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3293,9 +3293,22 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Driver,
+Equip</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3328,8 +3341,16 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -3375,11 +3396,7 @@
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -3418,11 +3435,7 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -3479,7 +3492,11 @@
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3527,7 +3544,11 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3589,7 +3610,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3636,7 +3657,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3688,7 +3709,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3731,7 +3752,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3764,11 +3785,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3798,13 +3815,21 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3833,8 +3858,16 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3866,19 +3899,15 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3909,12 +3938,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3944,12 +3973,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3991,12 +4020,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4032,16 +4061,8 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4081,16 +4102,8 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -1561,7 +1561,8 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Red Camry,
+work w/ Nate</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -3184,7 +3184,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/R1kL7NZmN7GcfrVF7</t>
+          <t>https://maps.app.goo.gl/gbah7td3vHSQCvYU7</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -784,7 +784,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #102, SUN PRAIRIE - IRONWOOD</t>
+          <t>METRO #102 +RX, SUN PRAIRIE - IRONWOOD</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1229,7 +1229,8 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1383,7 +1384,11 @@
           <t>Eva</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -2496,7 +2496,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>10 VKIING DR</t>
+          <t>10 VIKING DR</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -1454,7 +1454,7 @@
       <c r="S21" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="S26" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -556,7 +556,11 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>

--- a/07-27-25 to 08-02-25 Madison Schedule.xlsx
+++ b/07-27-25 to 08-02-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,7 @@
           <t>Sat, Aug 2</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -502,6 +503,7 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -529,6 +531,7 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -564,6 +567,7 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -595,6 +599,7 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -626,6 +631,7 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -657,6 +663,7 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -708,6 +715,7 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -755,6 +763,7 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -802,6 +811,7 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -849,6 +859,7 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -896,6 +907,7 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -943,6 +955,7 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -982,6 +995,7 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1038,6 +1052,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1116,6 +1131,7 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1180,6 +1196,7 @@
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1255,6 +1272,11 @@
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1331,6 +1353,7 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1407,6 +1430,7 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1480,6 +1504,7 @@
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1543,6 +1568,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1616,6 +1642,7 @@
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1692,6 +1719,7 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1763,6 +1791,7 @@
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1853,6 +1882,7 @@
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -1942,6 +1972,7 @@
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2017,6 +2048,7 @@
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2093,6 +2125,7 @@
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2160,6 +2193,7 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2215,6 +2249,7 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2274,6 +2309,7 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2325,6 +2361,7 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2364,6 +2401,7 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2407,6 +2445,7 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2450,6 +2489,7 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2506,6 +2546,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2557,6 +2598,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2600,6 +2642,7 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2639,6 +2682,7 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2692,6 +2736,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2743,6 +2788,11 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2824,6 +2874,7 @@
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -2883,6 +2934,7 @@
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2926,6 +2978,7 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -2957,6 +3010,7 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -2992,6 +3046,7 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3043,6 +3098,7 @@
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3082,6 +3138,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3121,6 +3178,7 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3164,6 +3222,7 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3207,6 +3266,7 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3250,6 +3310,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3289,6 +3350,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3337,6 +3399,7 @@
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3392,6 +3455,11 @@
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3435,6 +3503,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3479,6 +3548,7 @@
       </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3530,6 +3600,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3599,6 +3670,7 @@
       </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -3646,6 +3718,7 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -3698,6 +3771,7 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -3741,6 +3815,7 @@
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -3784,6 +3859,7 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -3815,6 +3891,7 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -3858,6 +3935,7 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -3897,6 +3975,7 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -3936,6 +4015,7 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -3971,6 +4051,7 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4018,6 +4099,11 @@
       </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Rockford cars will now be using the area to the south side of building to meet at</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4061,6 +4147,7 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4102,6 +4189,7 @@
       </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4141,6 +4229,7 @@
       </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4180,6 +4269,7 @@
       </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4219,6 +4309,7 @@
       </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4258,6 +4349,7 @@
       </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4298,6 +4390,7 @@
       </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -4337,6 +4430,7 @@
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -4376,6 +4470,7 @@
       </c>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -4415,6 +4510,7 @@
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -4454,6 +4550,7 @@
       </c>
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -4493,6 +4590,7 @@
       </c>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -4532,6 +4630,7 @@
       </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
